--- a/static/contents/r03/20210619/仙台市卓球選手権大会-複_R03_申込.xlsx
+++ b/static/contents/r03/20210619/仙台市卓球選手権大会-複_R03_申込.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twaga\Dropbox\sendai-tta\01_大会\05_市卓球選手権\r03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5ACA57-99AC-41DA-A136-D4FE65785C01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98372421-3C3E-4C15-AC8E-5AB6F0A4CC18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
@@ -2045,7 +2045,7 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="1"/>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{5D1D34AE-1F9E-4F49-88C8-33D90E41C279}">
       <formula1>1</formula1>
       <formula2>99</formula2>
@@ -2058,9 +2058,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26:F27 F65:F66 F29:F30 F32:F33 F35:F36 F38:F39 F41:F42 F44:F45 F47:F48 F50:F51 F53:F54 F56:F57 F59:F60 F62:F63 F68:F69" xr:uid="{1D38ACE6-C4C3-49D7-BE1C-F55466340BB9}">
       <formula1>"男子,女子"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29 B68 B65 B62 B59 B56 B53 B50 B47 B44 B41 B38 B35 B32" xr:uid="{6E06FD86-812F-4231-8CDB-522CFD700961}">
-      <formula1>$A$2:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2076,7 +2073,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B26</xm:sqref>
+          <xm:sqref>B26 B29 B32 B35 B38 B41 B44 B47 B50 B53 B56 B59 B62 B65 B68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
